--- a/biology/Botanique/Compsopogon/Compsopogon.xlsx
+++ b/biology/Botanique/Compsopogon/Compsopogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Compsopogon est un genre d’algues rouges de la famille des Compsopogonaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Compsopogon est dérivé du grec κομψο / kompson, élégant, et πώγων / pógon, barbe, littéralement « belle barbe ».
 </t>
@@ -542,16 +556,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 décembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 décembre 2021) :
 Compsopogon argentinensis Pujals
 Compsopogon caeruleus (Balbis ex C.Agardh) Montagne (espèce type)
 Compsopogon corinaldii (Meneghini) Kützing
 Compsopogon helwanii El-Gamal &amp; Salah El-Din
 Compsopogon occidentalis Tracanna
 Compsopogon sparsus S.L.Xie &amp; Y.J.Ling
-Selon World Register of Marine Species                               (24 décembre 2021)[2] :
+Selon World Register of Marine Species                               (24 décembre 2021) :
 Compsopogon argentinensis Pujals, 1967
 Compsopogon caeruleus (Balbis ex C.Agardh) Montagne, 1846
 Compsopogon corinaldii (Meneghini) Kützing, 1857
